--- a/Donnees Brutes.xlsx
+++ b/Donnees Brutes.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t xml:space="preserve">Dossier</t>
   </si>
@@ -43,10 +43,49 @@
     <t xml:space="preserve">765C</t>
   </si>
   <si>
-    <t xml:space="preserve">Kurt Cobain</t>
+    <t xml:space="preserve">Dax Moreno</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larry Rubio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hailie David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine Cantrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogelio Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ally Logan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Chaney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emily Moses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katrina Andrews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imani Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zachariah Aguilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karsyn Gaines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gina Salas</t>
   </si>
 </sst>
 </file>
@@ -205,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,10 +292,2491 @@
       <c r="D2" s="3" t="n">
         <v>42984</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="n">
+        <v>43335</v>
+      </c>
     </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>43093</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>43095</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>43071</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>43159</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>43226</v>
+      </c>
+      <c r="E7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>43223</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>43229</v>
+      </c>
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>43228</v>
+      </c>
+      <c r="E10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>43174</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>43159</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="1046294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E13"/>
+  <autoFilter ref="A1:E6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Donnees Brutes.xlsx
+++ b/Donnees Brutes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,32 +13,6 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$E$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -50,105 +24,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
-  <si>
-    <t>Dossier</t>
-  </si>
-  <si>
-    <t>Mis en examen</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Date du mandat de dépôt initial</t>
-  </si>
-  <si>
-    <t>Date de gestion de l’alerte</t>
-  </si>
-  <si>
-    <t>1/18/6</t>
-  </si>
-  <si>
-    <t>MOF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>1/17/13</t>
-  </si>
-  <si>
-    <t>BAME</t>
-  </si>
-  <si>
-    <t>1/17/14</t>
-  </si>
-  <si>
-    <t>PAS COUPABLE</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>JUSTE UN PEU</t>
-  </si>
-  <si>
-    <t>PETITE MAIN</t>
-  </si>
-  <si>
-    <t>TONTON KILLER</t>
-  </si>
-  <si>
-    <t>1/17/24</t>
-  </si>
-  <si>
-    <t>ATARAX</t>
-  </si>
-  <si>
-    <t>1/17/26</t>
-  </si>
-  <si>
-    <t>SUCETTE</t>
-  </si>
-  <si>
-    <t>TCHATTY</t>
-  </si>
-  <si>
-    <t>1/18/8</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>1/18/9</t>
-  </si>
-  <si>
-    <t>SPIELBERG</t>
-  </si>
-  <si>
-    <t>1/18/11</t>
-  </si>
-  <si>
-    <t>GUY GEORGES</t>
-  </si>
-  <si>
-    <t>1/18/13</t>
-  </si>
-  <si>
-    <t>MEMEPHILE</t>
-  </si>
-  <si>
-    <t>1/18/10</t>
-  </si>
-  <si>
-    <t>CABANON</t>
-  </si>
-  <si>
-    <t>1/18/22</t>
-  </si>
-  <si>
-    <t>PAUL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Dossier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mis en examen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date du mandat de dépôt initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de gestion de l’alerte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/17/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/17/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAS COUPABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUSTE UN PEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETITE MAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TONTON KILLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/17/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATARAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/17/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCETTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCHATTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIELBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY GEORGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMEPHILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABANON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/18/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUCHE</t>
   </si>
 </sst>
 </file>
@@ -156,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
@@ -309,20 +295,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:16"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.35"/>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="7.4234693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="7.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,11 +1574,45 @@
         <v>43334</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>43153</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>43364</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>42849</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>43364</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E16"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
